--- a/实施周数据-张磊组/10月/44周/实施周数据-张磊组-姚亚文.xlsx
+++ b/实施周数据-张磊组/10月/44周/实施周数据-张磊组-姚亚文.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="119">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -448,6 +448,14 @@
   </si>
   <si>
     <t>44周</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司值班</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上 米斯特淮安淮海东路店上线</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -6072,7 +6080,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6127,14 +6135,26 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="60">
+        <v>43036</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="60">
+        <v>43038</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>

--- a/实施周数据-张磊组/10月/44周/实施周数据-张磊组-姚亚文.xlsx
+++ b/实施周数据-张磊组/10月/44周/实施周数据-张磊组-姚亚文.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="120">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -456,10 +456,6 @@
   </si>
   <si>
     <t>米斯特盐城建军中路上线</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>米斯特镇江市苏宁广场店住店</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -1107,6 +1103,15 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1124,15 +1129,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1431,25 +1427,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1499,8 +1495,8 @@
       <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="62"/>
-      <c r="B3" s="65" t="s">
+      <c r="A3" s="65"/>
+      <c r="B3" s="68" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -1540,8 +1536,8 @@
       <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="66"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="21" t="s">
         <v>16</v>
       </c>
@@ -1579,8 +1575,8 @@
       <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="66"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="21" t="s">
         <v>17</v>
       </c>
@@ -1625,8 +1621,8 @@
       <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="66"/>
+      <c r="A6" s="66"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="21" t="s">
         <v>18</v>
       </c>
@@ -1664,8 +1660,8 @@
       <c r="Q6" s="40"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="66"/>
+      <c r="A7" s="66"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="21" t="s">
         <v>19</v>
       </c>
@@ -1703,8 +1699,8 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="66"/>
+      <c r="A8" s="66"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="21" t="s">
         <v>20</v>
       </c>
@@ -1742,8 +1738,8 @@
       <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="66"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="21" t="s">
         <v>21</v>
       </c>
@@ -1781,8 +1777,8 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="66"/>
+      <c r="A10" s="66"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="25" t="s">
         <v>22</v>
       </c>
@@ -1820,8 +1816,8 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="64"/>
-      <c r="B11" s="67"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="70"/>
       <c r="C11" s="31" t="s">
         <v>23</v>
       </c>
@@ -1921,8 +1917,8 @@
       <c r="Q12" s="40"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="65" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="68" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -1962,8 +1958,8 @@
       <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="66"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="21" t="s">
         <v>16</v>
       </c>
@@ -2001,8 +1997,8 @@
       <c r="Q14" s="40"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="66"/>
+      <c r="A15" s="66"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="21" t="s">
         <v>17</v>
       </c>
@@ -2045,8 +2041,8 @@
       <c r="Q15" s="40"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="66"/>
+      <c r="A16" s="66"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="21" t="s">
         <v>18</v>
       </c>
@@ -2084,8 +2080,8 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="66"/>
+      <c r="A17" s="66"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="21" t="s">
         <v>19</v>
       </c>
@@ -2123,8 +2119,8 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="66"/>
+      <c r="A18" s="66"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="21" t="s">
         <v>20</v>
       </c>
@@ -2162,8 +2158,8 @@
       <c r="Q18" s="40"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="66"/>
+      <c r="A19" s="66"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="21" t="s">
         <v>21</v>
       </c>
@@ -2201,8 +2197,8 @@
       <c r="Q19" s="40"/>
     </row>
     <row r="20" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="66"/>
+      <c r="A20" s="66"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="25" t="s">
         <v>22</v>
       </c>
@@ -2240,8 +2236,8 @@
       <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="64"/>
-      <c r="B21" s="67"/>
+      <c r="A21" s="67"/>
+      <c r="B21" s="70"/>
       <c r="C21" s="31" t="s">
         <v>23</v>
       </c>
@@ -2338,8 +2334,8 @@
       <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
-      <c r="B23" s="65" t="s">
+      <c r="A23" s="65"/>
+      <c r="B23" s="68" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -2379,8 +2375,8 @@
       <c r="Q23" s="40"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="66"/>
+      <c r="A24" s="66"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="21" t="s">
         <v>16</v>
       </c>
@@ -2418,8 +2414,8 @@
       <c r="Q24" s="40"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="66"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="21" t="s">
         <v>17</v>
       </c>
@@ -2462,8 +2458,8 @@
       <c r="Q25" s="40"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="66"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
@@ -2501,8 +2497,8 @@
       <c r="Q26" s="40"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
-      <c r="B27" s="66"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="21" t="s">
         <v>19</v>
       </c>
@@ -2540,8 +2536,8 @@
       <c r="Q27" s="40"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="66"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="21" t="s">
         <v>20</v>
       </c>
@@ -2579,8 +2575,8 @@
       <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="66"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="69"/>
       <c r="C29" s="21" t="s">
         <v>21</v>
       </c>
@@ -2618,8 +2614,8 @@
       <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="63"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="69"/>
       <c r="C30" s="25" t="s">
         <v>22</v>
       </c>
@@ -2657,8 +2653,8 @@
       <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="64"/>
-      <c r="B31" s="67"/>
+      <c r="A31" s="67"/>
+      <c r="B31" s="70"/>
       <c r="C31" s="31" t="s">
         <v>23</v>
       </c>
@@ -2755,8 +2751,8 @@
       <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="65" t="s">
+      <c r="A33" s="65"/>
+      <c r="B33" s="68" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -2796,8 +2792,8 @@
       <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="66"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="69"/>
       <c r="C34" s="21" t="s">
         <v>16</v>
       </c>
@@ -2835,8 +2831,8 @@
       <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="66"/>
+      <c r="A35" s="66"/>
+      <c r="B35" s="69"/>
       <c r="C35" s="21" t="s">
         <v>17</v>
       </c>
@@ -2879,8 +2875,8 @@
       <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="66"/>
+      <c r="A36" s="66"/>
+      <c r="B36" s="69"/>
       <c r="C36" s="21" t="s">
         <v>18</v>
       </c>
@@ -2918,8 +2914,8 @@
       <c r="Q36" s="40"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="66"/>
+      <c r="A37" s="66"/>
+      <c r="B37" s="69"/>
       <c r="C37" s="21" t="s">
         <v>19</v>
       </c>
@@ -2957,8 +2953,8 @@
       <c r="Q37" s="40"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="66"/>
+      <c r="A38" s="66"/>
+      <c r="B38" s="69"/>
       <c r="C38" s="21" t="s">
         <v>20</v>
       </c>
@@ -2996,8 +2992,8 @@
       <c r="Q38" s="40"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="66"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="69"/>
       <c r="C39" s="21" t="s">
         <v>21</v>
       </c>
@@ -3035,8 +3031,8 @@
       <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="63"/>
-      <c r="B40" s="66"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="69"/>
       <c r="C40" s="25" t="s">
         <v>22</v>
       </c>
@@ -3074,8 +3070,8 @@
       <c r="Q40" s="40"/>
     </row>
     <row r="41" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="64"/>
-      <c r="B41" s="67"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="70"/>
       <c r="C41" s="31" t="s">
         <v>23</v>
       </c>
@@ -3172,8 +3168,8 @@
       <c r="Q42" s="40"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="62"/>
-      <c r="B43" s="65" t="s">
+      <c r="A43" s="65"/>
+      <c r="B43" s="68" t="s">
         <v>113</v>
       </c>
       <c r="C43" s="17" t="s">
@@ -3213,8 +3209,8 @@
       <c r="Q43" s="40"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="66"/>
+      <c r="A44" s="66"/>
+      <c r="B44" s="69"/>
       <c r="C44" s="21" t="s">
         <v>16</v>
       </c>
@@ -3252,8 +3248,8 @@
       <c r="Q44" s="40"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="66"/>
+      <c r="A45" s="66"/>
+      <c r="B45" s="69"/>
       <c r="C45" s="21" t="s">
         <v>17</v>
       </c>
@@ -3298,8 +3294,8 @@
       <c r="Q45" s="40"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="66"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="69"/>
       <c r="C46" s="21" t="s">
         <v>18</v>
       </c>
@@ -3337,8 +3333,8 @@
       <c r="Q46" s="40"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="63"/>
-      <c r="B47" s="66"/>
+      <c r="A47" s="66"/>
+      <c r="B47" s="69"/>
       <c r="C47" s="21" t="s">
         <v>19</v>
       </c>
@@ -3376,8 +3372,8 @@
       <c r="Q47" s="40"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="63"/>
-      <c r="B48" s="66"/>
+      <c r="A48" s="66"/>
+      <c r="B48" s="69"/>
       <c r="C48" s="21" t="s">
         <v>20</v>
       </c>
@@ -3415,8 +3411,8 @@
       <c r="Q48" s="40"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
-      <c r="B49" s="66"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="69"/>
       <c r="C49" s="21" t="s">
         <v>21</v>
       </c>
@@ -3454,8 +3450,8 @@
       <c r="Q49" s="40"/>
     </row>
     <row r="50" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="63"/>
-      <c r="B50" s="66"/>
+      <c r="A50" s="66"/>
+      <c r="B50" s="69"/>
       <c r="C50" s="25" t="s">
         <v>22</v>
       </c>
@@ -3493,8 +3489,8 @@
       <c r="Q50" s="40"/>
     </row>
     <row r="51" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="64"/>
-      <c r="B51" s="67"/>
+      <c r="A51" s="67"/>
+      <c r="B51" s="70"/>
       <c r="C51" s="31" t="s">
         <v>23</v>
       </c>
@@ -3545,17 +3541,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:B21"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="B43:B51"/>
     <mergeCell ref="A33:A41"/>
     <mergeCell ref="B33:B41"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="B23:B31"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B21"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6086,10 +6082,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6123,35 +6119,35 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B3" s="60">
-        <v>43021</v>
+        <v>43024</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B4" s="60">
-        <v>43024</v>
+        <v>43025</v>
       </c>
       <c r="C4" s="61" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="B5" s="60">
-        <v>43025</v>
+        <v>43030</v>
       </c>
       <c r="C5" s="61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -6159,33 +6155,27 @@
         <v>71</v>
       </c>
       <c r="B6" s="60">
-        <v>43030</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>116</v>
+        <v>43036</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B7" s="60">
-        <v>43036</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>114</v>
+        <v>43038</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="60">
-        <v>43038</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>117</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -6311,11 +6301,6 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>

--- a/实施周数据-张磊组/10月/44周/实施周数据-张磊组-姚亚文.xlsx
+++ b/实施周数据-张磊组/10月/44周/实施周数据-张磊组-姚亚文.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="121">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -460,6 +460,10 @@
   </si>
   <si>
     <t>米斯特盐城建军中路住店</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>米斯特蚌埠东海大道店住店</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -1103,6 +1107,24 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1111,24 +1133,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1427,25 +1431,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="62" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -1495,8 +1499,8 @@
       <c r="Q2" s="40"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="68" t="s">
+      <c r="A3" s="62"/>
+      <c r="B3" s="65" t="s">
         <v>60</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -1536,8 +1540,8 @@
       <c r="Q3" s="40"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="66"/>
-      <c r="B4" s="69"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="21" t="s">
         <v>16</v>
       </c>
@@ -1575,8 +1579,8 @@
       <c r="Q4" s="40"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="66"/>
-      <c r="B5" s="69"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="21" t="s">
         <v>17</v>
       </c>
@@ -1621,8 +1625,8 @@
       <c r="Q5" s="40"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="66"/>
-      <c r="B6" s="69"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="21" t="s">
         <v>18</v>
       </c>
@@ -1660,8 +1664,8 @@
       <c r="Q6" s="40"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="66"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="21" t="s">
         <v>19</v>
       </c>
@@ -1699,8 +1703,8 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="66"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="21" t="s">
         <v>20</v>
       </c>
@@ -1738,8 +1742,8 @@
       <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="21" t="s">
         <v>21</v>
       </c>
@@ -1777,8 +1781,8 @@
       <c r="Q9" s="40"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="69"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="25" t="s">
         <v>22</v>
       </c>
@@ -1816,8 +1820,8 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="70"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="67"/>
       <c r="C11" s="31" t="s">
         <v>23</v>
       </c>
@@ -1917,8 +1921,8 @@
       <c r="Q12" s="40"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="68" t="s">
+      <c r="A13" s="62"/>
+      <c r="B13" s="65" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="17" t="s">
@@ -1958,8 +1962,8 @@
       <c r="Q13" s="40"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="66"/>
-      <c r="B14" s="69"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="66"/>
       <c r="C14" s="21" t="s">
         <v>16</v>
       </c>
@@ -1997,8 +2001,8 @@
       <c r="Q14" s="40"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="66"/>
-      <c r="B15" s="69"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="21" t="s">
         <v>17</v>
       </c>
@@ -2041,8 +2045,8 @@
       <c r="Q15" s="40"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="66"/>
-      <c r="B16" s="69"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="21" t="s">
         <v>18</v>
       </c>
@@ -2080,8 +2084,8 @@
       <c r="Q16" s="40"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="69"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="21" t="s">
         <v>19</v>
       </c>
@@ -2119,8 +2123,8 @@
       <c r="Q17" s="40"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="66"/>
-      <c r="B18" s="69"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="21" t="s">
         <v>20</v>
       </c>
@@ -2158,8 +2162,8 @@
       <c r="Q18" s="40"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="69"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="21" t="s">
         <v>21</v>
       </c>
@@ -2197,8 +2201,8 @@
       <c r="Q19" s="40"/>
     </row>
     <row r="20" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="66"/>
-      <c r="B20" s="69"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="66"/>
       <c r="C20" s="25" t="s">
         <v>22</v>
       </c>
@@ -2236,8 +2240,8 @@
       <c r="Q20" s="40"/>
     </row>
     <row r="21" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="67"/>
-      <c r="B21" s="70"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="67"/>
       <c r="C21" s="31" t="s">
         <v>23</v>
       </c>
@@ -2334,8 +2338,8 @@
       <c r="Q22" s="40"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="68" t="s">
+      <c r="A23" s="62"/>
+      <c r="B23" s="65" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="17" t="s">
@@ -2375,8 +2379,8 @@
       <c r="Q23" s="40"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="66"/>
-      <c r="B24" s="69"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="66"/>
       <c r="C24" s="21" t="s">
         <v>16</v>
       </c>
@@ -2414,8 +2418,8 @@
       <c r="Q24" s="40"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
-      <c r="B25" s="69"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="66"/>
       <c r="C25" s="21" t="s">
         <v>17</v>
       </c>
@@ -2458,8 +2462,8 @@
       <c r="Q25" s="40"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="66"/>
-      <c r="B26" s="69"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="66"/>
       <c r="C26" s="21" t="s">
         <v>18</v>
       </c>
@@ -2497,8 +2501,8 @@
       <c r="Q26" s="40"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="66"/>
-      <c r="B27" s="69"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="66"/>
       <c r="C27" s="21" t="s">
         <v>19</v>
       </c>
@@ -2536,8 +2540,8 @@
       <c r="Q27" s="40"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="66"/>
-      <c r="B28" s="69"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="66"/>
       <c r="C28" s="21" t="s">
         <v>20</v>
       </c>
@@ -2575,8 +2579,8 @@
       <c r="Q28" s="40"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="66"/>
-      <c r="B29" s="69"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="66"/>
       <c r="C29" s="21" t="s">
         <v>21</v>
       </c>
@@ -2614,8 +2618,8 @@
       <c r="Q29" s="40"/>
     </row>
     <row r="30" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
-      <c r="B30" s="69"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="66"/>
       <c r="C30" s="25" t="s">
         <v>22</v>
       </c>
@@ -2653,8 +2657,8 @@
       <c r="Q30" s="40"/>
     </row>
     <row r="31" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
-      <c r="B31" s="70"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="67"/>
       <c r="C31" s="31" t="s">
         <v>23</v>
       </c>
@@ -2751,8 +2755,8 @@
       <c r="Q32" s="40"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="68" t="s">
+      <c r="A33" s="62"/>
+      <c r="B33" s="65" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="17" t="s">
@@ -2792,8 +2796,8 @@
       <c r="Q33" s="40"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="66"/>
-      <c r="B34" s="69"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="66"/>
       <c r="C34" s="21" t="s">
         <v>16</v>
       </c>
@@ -2831,8 +2835,8 @@
       <c r="Q34" s="40"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="66"/>
-      <c r="B35" s="69"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="66"/>
       <c r="C35" s="21" t="s">
         <v>17</v>
       </c>
@@ -2875,8 +2879,8 @@
       <c r="Q35" s="40"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="66"/>
-      <c r="B36" s="69"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="66"/>
       <c r="C36" s="21" t="s">
         <v>18</v>
       </c>
@@ -2914,8 +2918,8 @@
       <c r="Q36" s="40"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="66"/>
-      <c r="B37" s="69"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="66"/>
       <c r="C37" s="21" t="s">
         <v>19</v>
       </c>
@@ -2953,8 +2957,8 @@
       <c r="Q37" s="40"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="69"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="66"/>
       <c r="C38" s="21" t="s">
         <v>20</v>
       </c>
@@ -2992,8 +2996,8 @@
       <c r="Q38" s="40"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="66"/>
-      <c r="B39" s="69"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="66"/>
       <c r="C39" s="21" t="s">
         <v>21</v>
       </c>
@@ -3031,8 +3035,8 @@
       <c r="Q39" s="40"/>
     </row>
     <row r="40" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="66"/>
-      <c r="B40" s="69"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="66"/>
       <c r="C40" s="25" t="s">
         <v>22</v>
       </c>
@@ -3070,8 +3074,8 @@
       <c r="Q40" s="40"/>
     </row>
     <row r="41" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="67"/>
-      <c r="B41" s="70"/>
+      <c r="A41" s="64"/>
+      <c r="B41" s="67"/>
       <c r="C41" s="31" t="s">
         <v>23</v>
       </c>
@@ -3168,8 +3172,8 @@
       <c r="Q42" s="40"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="68" t="s">
+      <c r="A43" s="62"/>
+      <c r="B43" s="65" t="s">
         <v>113</v>
       </c>
       <c r="C43" s="17" t="s">
@@ -3209,8 +3213,8 @@
       <c r="Q43" s="40"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="66"/>
-      <c r="B44" s="69"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="66"/>
       <c r="C44" s="21" t="s">
         <v>16</v>
       </c>
@@ -3248,8 +3252,8 @@
       <c r="Q44" s="40"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="66"/>
-      <c r="B45" s="69"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="66"/>
       <c r="C45" s="21" t="s">
         <v>17</v>
       </c>
@@ -3294,8 +3298,8 @@
       <c r="Q45" s="40"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="66"/>
-      <c r="B46" s="69"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="66"/>
       <c r="C46" s="21" t="s">
         <v>18</v>
       </c>
@@ -3333,8 +3337,8 @@
       <c r="Q46" s="40"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="66"/>
-      <c r="B47" s="69"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="66"/>
       <c r="C47" s="21" t="s">
         <v>19</v>
       </c>
@@ -3372,8 +3376,8 @@
       <c r="Q47" s="40"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="66"/>
-      <c r="B48" s="69"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="66"/>
       <c r="C48" s="21" t="s">
         <v>20</v>
       </c>
@@ -3411,8 +3415,8 @@
       <c r="Q48" s="40"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="66"/>
-      <c r="B49" s="69"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="66"/>
       <c r="C49" s="21" t="s">
         <v>21</v>
       </c>
@@ -3450,8 +3454,8 @@
       <c r="Q49" s="40"/>
     </row>
     <row r="50" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="66"/>
-      <c r="B50" s="69"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="66"/>
       <c r="C50" s="25" t="s">
         <v>22</v>
       </c>
@@ -3489,8 +3493,8 @@
       <c r="Q50" s="40"/>
     </row>
     <row r="51" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="67"/>
-      <c r="B51" s="70"/>
+      <c r="A51" s="64"/>
+      <c r="B51" s="67"/>
       <c r="C51" s="31" t="s">
         <v>23</v>
       </c>
@@ -3541,17 +3545,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="B3:B11"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="B13:B21"/>
     <mergeCell ref="A43:A51"/>
     <mergeCell ref="B43:B51"/>
     <mergeCell ref="A33:A41"/>
     <mergeCell ref="B33:B41"/>
     <mergeCell ref="A23:A31"/>
     <mergeCell ref="B23:B31"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="A13:A21"/>
-    <mergeCell ref="B13:B21"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6082,10 +6086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6155,27 +6159,33 @@
         <v>71</v>
       </c>
       <c r="B6" s="60">
-        <v>43036</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>114</v>
+        <v>43031</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="60">
+        <v>43036</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="60">
+      <c r="B8" s="60">
         <v>43038</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C8" s="61" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
@@ -6301,6 +6311,11 @@
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
